--- a/G RC카 BOM.xlsx
+++ b/G RC카 BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <r>
       <t>부품</t>
@@ -145,9 +145,6 @@
     <t xml:space="preserve">건전지 홀더 </t>
   </si>
   <si>
-    <t>BH-4AA</t>
-  </si>
-  <si>
     <r>
       <t>가속도</t>
     </r>
@@ -181,11 +178,38 @@
     <t>건전지</t>
   </si>
   <si>
+    <t>조이스틱</t>
+  </si>
+  <si>
+    <t>조이스틱 스위치</t>
+  </si>
+  <si>
+    <t>조이스틱 쉴드</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>DG-53N RGB 262C-A9001</t>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBH-9V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SBH-9V </t>
+  </si>
+  <si>
     <r>
       <t>AA</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="돋움"/>
@@ -196,18 +220,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="SimHei"/>
         <family val="3"/>
-        <charset val="134"/>
       </rPr>
       <t>x4</t>
     </r>
   </si>
   <si>
     <r>
-      <t>AA</t>
+      <t xml:space="preserve">9V </t>
     </r>
     <r>
       <rPr>
@@ -222,26 +246,6 @@
       <t>건전지</t>
     </r>
   </si>
-  <si>
-    <t>조이스틱</t>
-  </si>
-  <si>
-    <t>조이스틱 스위치</t>
-  </si>
-  <si>
-    <t>조이스틱 쉴드</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>DG-53N RGB 262C-A9001</t>
-  </si>
-  <si>
-    <t>총합</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -257,12 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -339,13 +337,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -382,6 +373,20 @@
       <color rgb="FF444444"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF2C2C2C"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -485,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -493,73 +498,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -843,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C7:H19"/>
+  <dimension ref="C7:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -883,8 +888,8 @@
       <c r="F9" s="4">
         <v>44000</v>
       </c>
-      <c r="G9" s="4">
-        <v>44000</v>
+      <c r="G9" s="22">
+        <v>41500</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>7</v>
@@ -903,9 +908,8 @@
       <c r="F10" s="4">
         <v>4840</v>
       </c>
-      <c r="G10" s="4">
-        <f>F10*E10</f>
-        <v>19360</v>
+      <c r="G10" s="23">
+        <v>19280</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>9</v>
@@ -924,8 +928,8 @@
       <c r="F11" s="4">
         <v>9090</v>
       </c>
-      <c r="G11" s="4">
-        <v>9090</v>
+      <c r="G11" s="23">
+        <v>6590</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>11</v>
@@ -944,7 +948,7 @@
       <c r="F12" s="4">
         <v>900</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="23">
         <v>1800</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -952,31 +956,31 @@
       </c>
     </row>
     <row r="13" spans="3:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="21">
+        <v>2</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1560</v>
+      </c>
+      <c r="G13" s="23">
+        <v>3120</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1040</v>
-      </c>
-      <c r="G13" s="4">
-        <v>2080</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -984,110 +988,95 @@
       <c r="F14" s="4">
         <v>7800</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="23">
         <v>7800</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="19" t="s">
         <v>18</v>
       </c>
+      <c r="D15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="21">
+        <v>2</v>
+      </c>
+      <c r="F15" s="21">
+        <v>1900</v>
+      </c>
+      <c r="G15" s="23">
+        <v>3800</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="15" spans="3:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="9" t="s">
+    <row r="16" spans="3:8" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>8090</v>
+      </c>
+      <c r="G16" s="23">
+        <v>8090</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1200</v>
-      </c>
-      <c r="G15" s="4">
-        <v>2400</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="16" spans="3:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="C16" s="13" t="s">
+    <row r="17" spans="3:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="17">
+        <v>4</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="17">
+        <v>4000</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15">
-        <v>8090</v>
-      </c>
-      <c r="G16" s="15">
-        <v>8090</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="14"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="3:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="22">
-        <v>4</v>
-      </c>
-      <c r="F18" s="22">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="22">
-        <v>4000</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="4">
-        <f>SUM(G9:G18)</f>
-        <v>98620</v>
+      <c r="G18" s="4">
+        <f>SUM(G9:G17)</f>
+        <v>95980</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-  </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1" display="http://toolparts.co.kr/front/php/product.php?product_no=68433&amp;main_cate_no=2440&amp;display_group=1&amp;cafe_mkt=naver_ks&amp;mkt_in=Y&amp;ghost_mall_id=naver&amp;ref=naver_open&amp;NaPm=ct%3Ditk66nfs%7Cci%3De6cb425555b7a94a2eaa9557ab6be3d8f61797d8%7Ctr%3Dslsl%7Csn%3D115848%7Chk%3D7b671e4cd0cafa7abc20da55b3024a07cc48c6a6"/>
     <hyperlink ref="H10" r:id="rId2" display="http://roboholic1.godo.co.kr/shop/goods/goods_view.php?goodsno=71794&amp;inflow=naver&amp;NaPm=ct%3Ditin864o%7Cci%3D16f3562af2aed60c82422199198ef1bddd9bab26%7Ctr%3Dslsl%7Csn%3D188145%7Chk%3D049d85b55e9e5c94acccb61dc6b88f6d6fc6c97f"/>
     <hyperlink ref="H11" r:id="rId3" display="http://www.interpark.com/product/MallDisplay.do?_method=detail&amp;sc.shopNo=0000100000&amp;firpg=01&amp;sc.prdNo=4417765611&amp;sc.dispNo=016001&amp;sc.dispNo=016001http://www.interpark.com/product/MallDisplay.do?_method=detail&amp;sc.shopNo=0000100000&amp;firpg=01&amp;sc.prdNo=4417765611&amp;sc.dispNo=016001&amp;sc.dispNo=016001"/>
     <hyperlink ref="H12" r:id="rId4" display="http://storefarm.naver.com/icrobot/products/405039343?NaPm=ct%3Ditkadmmg%7Cci%3D373cf4b9b80b0c88f5f9dca51c198821cde4f1c3%7Ctr%3Dsls%7Csn%3D347641%7Chk%3D4b419149f9b8d8242180063327ebde873c979fb2"/>
-    <hyperlink ref="H13" r:id="rId5" display="http://eleparts.co.kr/EPXDFK6H"/>
-    <hyperlink ref="H14" r:id="rId6" display="http://eleparts.co.kr/EPXDT7NJ"/>
-    <hyperlink ref="H15" r:id="rId7" display="http://www.devicemart.co.kr/1113022"/>
-    <hyperlink ref="H16" r:id="rId8" display="http://www.devicemart.co.kr/38168"/>
-    <hyperlink ref="H16:H17" r:id="rId9" display="조이스틱 스위치"/>
-    <hyperlink ref="H18" r:id="rId10" display="http://www.devicemart.co.kr/6224"/>
+    <hyperlink ref="H14" r:id="rId5" display="http://eleparts.co.kr/EPXDT7NJ"/>
+    <hyperlink ref="H16" r:id="rId6" display="http://www.devicemart.co.kr/38168"/>
+    <hyperlink ref="H16" r:id="rId7"/>
+    <hyperlink ref="H17" r:id="rId8" display="http://www.devicemart.co.kr/6224"/>
+    <hyperlink ref="H13" r:id="rId9" display="http://eleparts.co.kr/EPX33TM8"/>
+    <hyperlink ref="H15" r:id="rId10" display="http://www.devicemart.co.kr/1113022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId11"/>

--- a/G RC카 BOM.xlsx
+++ b/G RC카 BOM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <r>
       <t>부품</t>
@@ -128,9 +128,6 @@
       </rPr>
       <t>드라이브</t>
     </r>
-  </si>
-  <si>
-    <t>TB6612FNG</t>
   </si>
   <si>
     <t xml:space="preserve">브레드 보드 </t>
@@ -245,6 +242,12 @@
       </rPr>
       <t>건전지</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> DRV8838</t>
+  </si>
+  <si>
+    <t>DRV8838</t>
   </si>
 </sst>
 </file>
@@ -851,7 +854,7 @@
   <dimension ref="C7:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -919,28 +922,28 @@
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>9090</v>
+        <v>8400</v>
       </c>
       <c r="G11" s="23">
-        <v>6590</v>
+        <v>8400</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
@@ -952,15 +955,15 @@
         <v>1800</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="21">
         <v>2</v>
@@ -972,15 +975,15 @@
         <v>3120</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -992,15 +995,15 @@
         <v>7800</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="21">
         <v>2</v>
@@ -1012,15 +1015,15 @@
         <v>3800</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="12">
         <v>1</v>
@@ -1032,15 +1035,15 @@
         <v>8090</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="E17" s="17">
         <v>4</v>
@@ -1052,16 +1055,16 @@
         <v>4000</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="4">
         <f>SUM(G9:G17)</f>
-        <v>95980</v>
+        <v>97790</v>
       </c>
     </row>
   </sheetData>
@@ -1069,7 +1072,7 @@
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1" display="http://toolparts.co.kr/front/php/product.php?product_no=68433&amp;main_cate_no=2440&amp;display_group=1&amp;cafe_mkt=naver_ks&amp;mkt_in=Y&amp;ghost_mall_id=naver&amp;ref=naver_open&amp;NaPm=ct%3Ditk66nfs%7Cci%3De6cb425555b7a94a2eaa9557ab6be3d8f61797d8%7Ctr%3Dslsl%7Csn%3D115848%7Chk%3D7b671e4cd0cafa7abc20da55b3024a07cc48c6a6"/>
     <hyperlink ref="H10" r:id="rId2" display="http://roboholic1.godo.co.kr/shop/goods/goods_view.php?goodsno=71794&amp;inflow=naver&amp;NaPm=ct%3Ditin864o%7Cci%3D16f3562af2aed60c82422199198ef1bddd9bab26%7Ctr%3Dslsl%7Csn%3D188145%7Chk%3D049d85b55e9e5c94acccb61dc6b88f6d6fc6c97f"/>
-    <hyperlink ref="H11" r:id="rId3" display="http://www.interpark.com/product/MallDisplay.do?_method=detail&amp;sc.shopNo=0000100000&amp;firpg=01&amp;sc.prdNo=4417765611&amp;sc.dispNo=016001&amp;sc.dispNo=016001http://www.interpark.com/product/MallDisplay.do?_method=detail&amp;sc.shopNo=0000100000&amp;firpg=01&amp;sc.prdNo=4417765611&amp;sc.dispNo=016001&amp;sc.dispNo=016001"/>
+    <hyperlink ref="H11" r:id="rId3"/>
     <hyperlink ref="H12" r:id="rId4" display="http://storefarm.naver.com/icrobot/products/405039343?NaPm=ct%3Ditkadmmg%7Cci%3D373cf4b9b80b0c88f5f9dca51c198821cde4f1c3%7Ctr%3Dsls%7Csn%3D347641%7Chk%3D4b419149f9b8d8242180063327ebde873c979fb2"/>
     <hyperlink ref="H14" r:id="rId5" display="http://eleparts.co.kr/EPXDT7NJ"/>
     <hyperlink ref="H16" r:id="rId6" display="http://www.devicemart.co.kr/38168"/>
